--- a/_CONCAT_DOWNER_BathSt.xlsx
+++ b/_CONCAT_DOWNER_BathSt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA8438-0576-475B-BA6B-FAD05157FDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A35F91-0F70-4766-98A6-E8AAA9954EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="915" windowWidth="29040" windowHeight="19785" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="28890" windowHeight="18450" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,174 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
-  <si>
-    <t>Material Delivery</t>
-  </si>
-  <si>
-    <t>Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Delivery </t>
-  </si>
-  <si>
-    <t>Visual</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PE/QE</t>
-  </si>
-  <si>
-    <t>Set out</t>
-  </si>
-  <si>
-    <t>Survey marks, photos</t>
-  </si>
-  <si>
-    <t>Prior to commencement of works</t>
-  </si>
-  <si>
-    <t>Visual, Instrumental</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>SV/QE/PE/CR</t>
-  </si>
-  <si>
-    <t>Trench Excavation</t>
-  </si>
-  <si>
-    <t>Photos</t>
-  </si>
-  <si>
-    <t>During Installation</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>SP/QE/PE</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scala tests on base of trench </t>
-  </si>
-  <si>
-    <t>minimum of 2 blows per 100mm</t>
-  </si>
-  <si>
-    <t>test results</t>
-  </si>
-  <si>
-    <t>During installation, per 20m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual, On site test
-</t>
-  </si>
-  <si>
-    <t>SP/QE</t>
-  </si>
-  <si>
-    <t>During installation</t>
-  </si>
-  <si>
-    <t>Embedment zone</t>
-  </si>
-  <si>
-    <t>Embedment material shall be AP20 or approved by the Engineer in writing</t>
-  </si>
-  <si>
-    <t>Backfill and Compact</t>
-  </si>
-  <si>
-    <t>95% MDD in roads, paths, and pavements</t>
-  </si>
-  <si>
-    <t>Photos, Compaction test results</t>
-  </si>
-  <si>
-    <t>During Installation, compaction testing per 50m of pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual, On Site test
-</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>Engineer Approval</t>
-  </si>
-  <si>
-    <t>QA records</t>
-  </si>
-  <si>
-    <t>at completion</t>
-  </si>
-  <si>
-    <t>CR/PM</t>
-  </si>
-  <si>
-    <t>- Items are approved as per contract specification or as agreed by the engineer
-- DCC approved</t>
-  </si>
-  <si>
-    <t>Photos, delivery docket, MDD results for backfill materials (if required)</t>
-  </si>
-  <si>
-    <t>Set out completed by an approved surveyor marked allignment</t>
-  </si>
-  <si>
-    <t>Allignment set out matches drawings, 2D data and linework provided or aggreed with the Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- excavate to achieve required depth as per Drawing C4600,C4500
-- Floor of trench to be even across width and length </t>
-  </si>
-  <si>
-    <t>- Allow 100mm for bedding 
--  Allow for minimum cover of 600mm.</t>
-  </si>
-  <si>
-    <t>Install Duct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Ducting installed and positioned as per design
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Duct not damaged during installation
-- minimum of 150mm horizontal and vertical clearence from other services or as specified on Drawings C4600, C4500
-</t>
-  </si>
-  <si>
-    <t>Photos, Survey of position for asbuilt, weld records (if required)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- min 100mm bedding
-- 100mm overlay
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual, measurement check
-</t>
-  </si>
-  <si>
-    <t>- Backfill in 200mm layers of compacted material
-- Compaction testing one test every two layers as required
-- conductive signal strip to be laid at 300mm above duct</t>
-  </si>
-  <si>
-    <t>As built</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -795,9 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -840,495 +675,341 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
       <c r="K2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
-        <v>3.1 - Material Delivery</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L2" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C2</f>
-        <v>Inspection Point: Quality Control Activity - Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</v>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M2" t="str">
         <f>"Acceptance Criteria - "&amp;D2</f>
-        <v>Acceptance Criteria - - Items are approved as per contract specification or as agreed by the engineer
-- DCC approved</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N2" t="str">
         <f>"Verifying Document - "&amp;E2</f>
-        <v>Verifying Document - Photos, delivery docket, MDD results for backfill materials (if required)</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O2" t="str">
         <f>"Frequency - "&amp;F2</f>
-        <v xml:space="preserve">Frequency - On Delivery </v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P2" t="str">
         <f>"Inspection Type (Visual, other) - "&amp;G2</f>
-        <v>Inspection Type (Visual, other) - Visual</v>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q2" t="str">
         <f>"Inspection: Key - "&amp;H2</f>
-        <v>Inspection: Key - C</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R2" t="str">
         <f>"Inspection: By (Role Key) - "&amp;I2</f>
-        <v>Inspection: By (Role Key) - PE/QE</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T2" t="str" cm="1">
-        <f t="array" ref="T2:T57">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:Q40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>3.1 - Material Delivery</v>
+        <f t="array" ref="T2:T65">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:R40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="K3" t="str">
         <f>A3&amp;" - "&amp;B3</f>
-        <v>3.2 - Set out</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L3" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C3</f>
-        <v>Inspection Point: Quality Control Activity - Set out completed by an approved surveyor marked allignment</v>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M3" t="str">
         <f>"Acceptance Criteria - "&amp;D3</f>
-        <v>Acceptance Criteria - Allignment set out matches drawings, 2D data and linework provided or aggreed with the Engineer</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N11" si="0">"Verifying Document - "&amp;E3</f>
-        <v>Verifying Document - Survey marks, photos</v>
+        <f t="shared" ref="N3:N9" si="0">"Verifying Document - "&amp;E3</f>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O11" si="1">"Frequency - "&amp;F3</f>
-        <v>Frequency - Prior to commencement of works</v>
+        <f t="shared" ref="O3:O9" si="1">"Frequency - "&amp;F3</f>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P11" si="2">"Inspection Type (Visual, other) - "&amp;G3</f>
-        <v>Inspection Type (Visual, other) - Visual, Instrumental</v>
+        <f t="shared" ref="P3:P9" si="2">"Inspection Type (Visual, other) - "&amp;G3</f>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q11" si="3">"Inspection: Key - "&amp;H3</f>
-        <v>Inspection: Key - H</v>
+        <f t="shared" ref="Q3:Q9" si="3">"Inspection: Key - "&amp;H3</f>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R11" si="4">"Inspection: By (Role Key) - "&amp;I3</f>
-        <v>Inspection: By (Role Key) - SV/QE/PE/CR</v>
+        <f t="shared" ref="R3:R9" si="4">"Inspection: By (Role Key) - "&amp;I3</f>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T3" t="str">
-        <v>Inspection Point: Quality Control Activity - Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
       <c r="K4" t="str">
         <f>A4&amp;" - "&amp;B4</f>
-        <v>4.1 - Trench Excavation</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L4" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C4</f>
-        <v xml:space="preserve">Inspection Point: Quality Control Activity - - excavate to achieve required depth as per Drawing C4600,C4500
-- Floor of trench to be even across width and length </v>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M4" t="str">
         <f>"Acceptance Criteria - "&amp;D4</f>
-        <v>Acceptance Criteria - - Allow 100mm for bedding 
--  Allow for minimum cover of 600mm.</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>Verifying Document - Photos</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="1"/>
-        <v>Frequency - During Installation</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="2"/>
-        <v>Inspection Type (Visual, other) - Visual</v>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="3"/>
-        <v>Inspection: Key - V</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="4"/>
-        <v>Inspection: By (Role Key) - SP/QE/PE</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T4" t="str">
-        <v>Acceptance Criteria - - Items are approved as per contract specification or as agreed by the engineer
-- DCC approved</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="10"/>
       <c r="K5" t="str">
         <f>A5&amp;" - "&amp;B5</f>
-        <v>4.2 - Foundation</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L3:L11" si="5">"Inspection Point: Quality Control Activity - "&amp;C5</f>
-        <v xml:space="preserve">Inspection Point: Quality Control Activity - Scala tests on base of trench </v>
+        <f t="shared" ref="L5" si="5">"Inspection Point: Quality Control Activity - "&amp;C5</f>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M3:M11" si="6">"Acceptance Criteria - "&amp;D5</f>
-        <v>Acceptance Criteria - minimum of 2 blows per 100mm</v>
+        <f t="shared" ref="M5" si="6">"Acceptance Criteria - "&amp;D5</f>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>Verifying Document - test results</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="1"/>
-        <v>Frequency - During installation, per 20m</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, On site test
-</v>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="3"/>
-        <v>Inspection: Key - H</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="4"/>
-        <v>Inspection: By (Role Key) - SP/QE</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T5" t="str">
-        <v>Verifying Document - Photos, delivery docket, MDD results for backfill materials (if required)</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="K6" t="str">
         <f>A6&amp;" - "&amp;B6</f>
-        <v>4.3 - Install Duct</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L6" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C6</f>
-        <v xml:space="preserve">Inspection Point: Quality Control Activity - - Ducting installed and positioned as per design
-</v>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M6" t="str">
         <f>"Acceptance Criteria - "&amp;D6</f>
-        <v xml:space="preserve">Acceptance Criteria - - Duct not damaged during installation
-- minimum of 150mm horizontal and vertical clearence from other services or as specified on Drawings C4600, C4500
-</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>Verifying Document - Photos, Survey of position for asbuilt, weld records (if required)</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="1"/>
-        <v>Frequency - During installation</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="2"/>
-        <v>Inspection Type (Visual, other) - Visual</v>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="3"/>
-        <v>Inspection: Key - V</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="4"/>
-        <v>Inspection: By (Role Key) - SP/QE</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T6" t="str">
-        <v>Frequency - On Delivery</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A7" s="16"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="K7" t="str">
-        <f t="shared" ref="K3:K11" si="7">A7&amp;" - "&amp;B7</f>
-        <v>4.4 - Embedment zone</v>
+        <f t="shared" ref="K7" si="7">A7&amp;" - "&amp;B7</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L7" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C7</f>
-        <v>Inspection Point: Quality Control Activity - Embedment material shall be AP20 or approved by the Engineer in writing</v>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M7" t="str">
         <f>"Acceptance Criteria - "&amp;D7</f>
-        <v xml:space="preserve">Acceptance Criteria - - min 100mm bedding
-- 100mm overlay
-</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>Verifying Document - Photos</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
-        <v>Frequency - During Installation</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, measurement check
-</v>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="3"/>
-        <v>Inspection: Key - V</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="4"/>
-        <v>Inspection: By (Role Key) - SP/QE</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T7" t="str">
-        <v>Inspection Type (Visual, other) - Visual</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
       <c r="K8" t="str">
         <f>A8&amp;" - "&amp;B8</f>
-        <v>4.5 - Backfill and Compact</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L8" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C8</f>
-        <v>Inspection Point: Quality Control Activity - - Backfill in 200mm layers of compacted material
-- Compaction testing one test every two layers as required
-- conductive signal strip to be laid at 300mm above duct</v>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - </v>
       </c>
       <c r="M8" t="str">
         <f>"Acceptance Criteria - "&amp;D8</f>
-        <v>Acceptance Criteria - 95% MDD in roads, paths, and pavements</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>Verifying Document - Photos, Compaction test results</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="1"/>
-        <v>Frequency - During Installation, compaction testing per 50m of pipeline</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, On Site test
-</v>
+        <v xml:space="preserve">Inspection Type (Visual, other) - </v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="3"/>
-        <v>Inspection: Key - H</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="4"/>
-        <v>Inspection: By (Role Key) - SP/QE/PE</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T8" t="str">
-        <v>Inspection: Key - C</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
       <c r="K9" t="str">
         <f>A9&amp;" - "&amp;B9</f>
-        <v>5.1 - As built</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="L9" t="str">
         <f>"Inspection Point: Quality Control Activity - "&amp;C9</f>
@@ -1336,15 +1017,15 @@
       </c>
       <c r="M9" t="str">
         <f>"Acceptance Criteria - "&amp;D9</f>
-        <v>Acceptance Criteria - Engineer Approval</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>Verifying Document - QA records</v>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="1"/>
-        <v>Frequency - at completion</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="2"/>
@@ -1352,14 +1033,14 @@
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="3"/>
-        <v>Inspection: Key - H</v>
+        <v xml:space="preserve">Inspection: Key - </v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="4"/>
-        <v>Inspection: By (Role Key) - CR/PM</v>
+        <v xml:space="preserve">Inspection: By (Role Key) - </v>
       </c>
       <c r="T9" t="str">
-        <v>3.2 - Set out</v>
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1054,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="T10" t="str">
-        <v>Inspection Point: Quality Control Activity - Set out completed by an approved surveyor marked allignment</v>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,249 +1068,283 @@
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
       <c r="T11" t="str">
-        <v>Acceptance Criteria - Allignment set out matches drawings, 2D data and linework provided or aggreed with the Engineer</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="T12" t="str">
-        <v>Verifying Document - Survey marks, photos</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="T13" t="str">
-        <v>Frequency - Prior to commencement of works</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T14" t="str">
-        <v>Inspection Type (Visual, other) - Visual, Instrumental</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T15" t="str">
-        <v>Inspection: Key - H</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T16" t="str">
-        <v>4.1 - Trench Excavation</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="17" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T17" t="str">
-        <v>Inspection Point: Quality Control Activity - - excavate to achieve required depth as per Drawing C4600,C4500
-- Floor of trench to be even across width and length</v>
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
     <row r="18" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T18" t="str">
-        <v>Acceptance Criteria - - Allow 100mm for bedding 
--  Allow for minimum cover of 600mm.</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" t="str">
-        <v>Verifying Document - Photos</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="20" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="T20" t="str">
-        <v>Frequency - During Installation</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="21" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="F21" s="1"/>
       <c r="T21" t="str">
-        <v>Inspection Type (Visual, other) - Visual</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="22" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="T22" t="str">
-        <v>Inspection: Key - V</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="23" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T23" t="str">
-        <v>4.2 - Foundation</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="24" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T24" t="str">
-        <v>Inspection Point: Quality Control Activity - Scala tests on base of trench</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T25" t="str">
-        <v>Acceptance Criteria - minimum of 2 blows per 100mm</v>
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
     <row r="26" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T26" t="str">
-        <v>Verifying Document - test results</v>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T27" t="str">
-        <v>Frequency - During installation, per 20m</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="28" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T28" t="str">
-        <v>Inspection Type (Visual, other) - Visual, On site test</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="29" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T29" t="str">
-        <v>Inspection: Key - H</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="30" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T30" t="str">
-        <v>4.3 - Install Duct</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="31" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" t="str">
-        <v>Inspection Point: Quality Control Activity - - Ducting installed and positioned as per design</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="32" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T32" t="str">
-        <v>Acceptance Criteria - - Duct not damaged during installation
-- minimum of 150mm horizontal and vertical clearence from other services or as specified on Drawings C4600, C4500</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="33" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T33" t="str">
-        <v>Verifying Document - Photos, Survey of position for asbuilt, weld records (if required)</v>
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
     <row r="34" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T34" t="str">
-        <v>Frequency - During installation</v>
+        <v>-</v>
       </c>
     </row>
     <row r="35" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T35" t="str">
-        <v>Inspection Type (Visual, other) - Visual</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="36" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T36" t="str">
-        <v>Inspection: Key - V</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="37" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T37" t="str">
-        <v>4.4 - Embedment zone</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="38" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T38" t="str">
-        <v>Inspection Point: Quality Control Activity - Embedment material shall be AP20 or approved by the Engineer in writing</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="39" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T39" t="str">
-        <v>Acceptance Criteria - - min 100mm bedding
-- 100mm overlay</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="40" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T40" t="str">
-        <v>Verifying Document - Photos</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="41" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T41" t="str">
-        <v>Frequency - During Installation</v>
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
     <row r="42" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T42" t="str">
-        <v>Inspection Type (Visual, other) - Visual, measurement check</v>
+        <v>-</v>
       </c>
     </row>
     <row r="43" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T43" t="str">
-        <v>Inspection: Key - V</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="44" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T44" t="str">
-        <v>4.5 - Backfill and Compact</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="45" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T45" t="str">
-        <v>Inspection Point: Quality Control Activity - - Backfill in 200mm layers of compacted material
-- Compaction testing one test every two layers as required
-- conductive signal strip to be laid at 300mm above duct</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="46" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T46" t="str">
-        <v>Acceptance Criteria - 95% MDD in roads, paths, and pavements</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="47" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T47" t="str">
-        <v>Verifying Document - Photos, Compaction test results</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="48" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T48" t="str">
-        <v>Frequency - During Installation, compaction testing per 50m of pipeline</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="49" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T49" t="str">
-        <v>Inspection Type (Visual, other) - Visual, On Site test</v>
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T50" t="str">
-        <v>Inspection: Key - H</v>
+        <v>-</v>
       </c>
     </row>
     <row r="51" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" t="str">
-        <v>5.1 - As built</v>
+        <v>Inspection Point: Quality Control Activity -</v>
       </c>
     </row>
     <row r="52" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T52" t="str">
-        <v>Inspection Point: Quality Control Activity -</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="53" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T53" t="str">
-        <v>Acceptance Criteria - Engineer Approval</v>
+        <v>Verifying Document -</v>
       </c>
     </row>
     <row r="54" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T54" t="str">
-        <v>Verifying Document - QA records</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="55" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T55" t="str">
-        <v>Frequency - at completion</v>
+        <v>Inspection Type (Visual, other) -</v>
       </c>
     </row>
     <row r="56" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T56" t="str">
-        <v>Inspection Type (Visual, other) -</v>
+        <v>Inspection: Key -</v>
       </c>
     </row>
     <row r="57" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T57" t="str">
-        <v>Inspection: Key - H</v>
+        <v>Inspection: By (Role Key) -</v>
+      </c>
+    </row>
+    <row r="58" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T58" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T59" t="str">
+        <v>Inspection Point: Quality Control Activity -</v>
+      </c>
+    </row>
+    <row r="60" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T60" t="str">
+        <v>Acceptance Criteria -</v>
+      </c>
+    </row>
+    <row r="61" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T61" t="str">
+        <v>Verifying Document -</v>
+      </c>
+    </row>
+    <row r="62" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T62" t="str">
+        <v>Frequency -</v>
+      </c>
+    </row>
+    <row r="63" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T63" t="str">
+        <v>Inspection Type (Visual, other) -</v>
+      </c>
+    </row>
+    <row r="64" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T64" t="str">
+        <v>Inspection: Key -</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T65" t="str">
+        <v>Inspection: By (Role Key) -</v>
       </c>
     </row>
   </sheetData>
